--- a/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_大学\2021.9\软件开发基础能力训练\大作业\LuckyHost\工作文档\06 小组日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BA55AC-2E36-4FCE-88FE-28969F415856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0CC52-7EBE-4BD2-B9CF-F45F79439DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021.12.13" sheetId="19" r:id="rId1"/>
-    <sheet name="2021.12.14" sheetId="20" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="21" r:id="rId3"/>
+    <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
+    <sheet name="2021.12.14" sheetId="19" r:id="rId2"/>
+    <sheet name="2021.12.15" sheetId="20" r:id="rId3"/>
+    <sheet name="2021.12.16" sheetId="21" r:id="rId4"/>
+    <sheet name="2021.12.17" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>每 日 工 作 报 告 书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     姓名：   日期： </t>
   </si>
   <si>
     <t>本日工作总结</t>
@@ -69,10 +59,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>项目立项文档</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -81,10 +67,6 @@
   </si>
   <si>
     <t>未完成</t>
-  </si>
-  <si>
-    <t>详细项目说明书</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已完成，未确认</t>
@@ -101,19 +83,143 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>待更改</t>
+    <t>代码大纲撰写</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>代码大纲撰写</t>
+    <t>不完全，待更改</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于部分需求是否需要仍然存在一些分歧，需要讨论解决</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码大纲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于部分代码实现存在分歧，需要进行讨论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%，完成了前半部分的项目文档</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%，确定了部分需求与功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，在网络上收集了所需资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改了部分UML图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，已经全部填写完毕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%，对于部分需求仍存在争议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%，对于软件的详细设计已经有讨论结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于部分需求进行了讨论并确定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%，已经基本确定代码的主要设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小部分需求仍存在争议，同时也有新的需求需要拓展</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次更改了部分UML图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认项目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认了之后需要实现的项目主题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目立项文挡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目需求文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%，初步填写项目立项文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%，初步确认项目需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，确认了项目的详细需求与功能实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%，完成了大部分项目设计文档的填写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，确认了主要代码的基本实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于项目中的部分设计仍然存在争议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -149,7 +255,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -157,6 +262,22 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -339,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,10 +515,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,16 +557,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,6 +720,159 @@
         <a:xfrm>
           <a:off x="6972300" y="30480"/>
           <a:ext cx="960120" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015BEEBC-5460-42A3-A148-64D9E67C412F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1600200" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2270760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4BF545-4988-42A8-BE33-2D0A0C0F7AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="975360" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,11 +1203,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855088F6-058B-4F8A-A77F-7F19733234DD}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" customWidth="1"/>
+    <col min="6" max="6" width="54.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>2</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>1</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>2</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="B5:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E16 E18:E19" xr:uid="{6EBDA004-F16D-4231-AA10-145E6BDB9271}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -926,105 +1476,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="27">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="C5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26"/>
       <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.5</v>
+      <c r="G5" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.9</v>
+        <v>13</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="18" t="s">
-        <v>16</v>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
@@ -1033,55 +1583,57 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -1089,9 +1641,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -1099,9 +1651,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -1109,9 +1661,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -1122,10 +1674,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22"/>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1136,10 +1688,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="22"/>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1147,14 +1699,14 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,11 +1714,15 @@
       <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,11 +1730,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2746,23 +3306,23 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F16 F18:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F16 F18:F65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2772,12 +3332,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU501"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2797,117 +3357,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="27">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -2915,9 +3506,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -2925,9 +3516,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -2935,9 +3526,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -2945,85 +3536,88 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22"/>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="11">
+      <c r="B16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -4297,8 +4891,10 @@
     <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="C445" s="3"/>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
     </row>
     <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E446" s="1"/>
@@ -4575,30 +5171,25 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F16 F18:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4607,12 +5198,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU501"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4632,119 +5223,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="27">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -4752,9 +5368,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -4762,9 +5378,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -4772,9 +5388,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -4782,85 +5398,82 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22"/>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="11">
+      <c r="B16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -6134,8 +6747,10 @@
     <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="C445" s="3"/>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
     </row>
     <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E446" s="1"/>
@@ -6412,30 +7027,1881 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F16 F18:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A801971-D917-41A7-9011-FC9B479D7BB9}">
+  <dimension ref="A1:IU500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{2577EC15-4BC9-45AE-8D2B-B4C61FF9DBC6}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0CC52-7EBE-4BD2-B9CF-F45F79439DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B28CA-09BE-4C4C-9177-B37B382916AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -295,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -454,13 +454,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,10 +564,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +588,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,40 +600,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,6 +654,455 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21B1D77-E243-42DC-9B62-A67606EB69CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1630680" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964CABCB-8E8C-41D2-9C7B-D193747F3797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="990600" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2104573B-02FD-48D3-BE4E-3C3132F70F66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1630680" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940F6808-BE59-4EF0-B79D-FF1D0E8A7C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="990600" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1630680" cy="495300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE559B9-4E16-4B3F-BD47-FA796DE5D6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1630680" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="525780"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F20884E-949A-4B74-BD8C-971A24CE2E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="990600" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -754,7 +1255,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1204,259 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855088F6-058B-4F8A-A77F-7F19733234DD}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" customWidth="1"/>
-    <col min="6" max="6" width="54.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>2</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>1</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>2</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B5:C14"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E16 E18:E19" xr:uid="{6EBDA004-F16D-4231-AA10-145E6BDB9271}">
-      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU501"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1475,38 +1727,38 @@
     <col min="256" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,126 +1766,110 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="31">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18" t="s">
-        <v>11</v>
+      <c r="C5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" s="41"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>25</v>
+      <c r="G6" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="32" t="s">
-        <v>31</v>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="19">
-        <v>0</v>
+      <c r="G7" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.5</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -1641,9 +1877,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -1651,9 +1887,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -1661,93 +1897,82 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="23">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="11">
+      <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="11">
+      <c r="B16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -3021,8 +3246,10 @@
     <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="C445" s="3"/>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
     </row>
     <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E446" s="1"/>
@@ -3299,45 +3526,40 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F16 F18:F65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{6395D91E-7825-41C7-844B-8B69342D90A8}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IU500"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IU501"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3356,38 +3578,38 @@
     <col min="256" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,10 +3617,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3412,93 +3634,1975 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="31">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>29</v>
+      <c r="G6" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>30</v>
+      <c r="G7" s="19">
+        <v>0</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E501" s="1"/>
+      <c r="F501" s="1"/>
+      <c r="G501" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F16 F18:F65536 F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IU500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -3506,9 +5610,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -3516,9 +5620,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -3526,9 +5630,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -3539,17 +5643,17 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="10"/>
@@ -3559,10 +5663,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3570,14 +5674,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,15 +5689,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,11 +5705,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -5173,12 +7277,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -5186,15 +7284,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F15 F17:F65535 F1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5202,7 +7307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5223,37 +7328,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5261,10 +7366,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5280,77 +7385,77 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="31">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="25" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -5358,9 +7463,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -5368,9 +7473,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -5378,9 +7483,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -5388,9 +7493,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -5401,10 +7506,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -5415,10 +7520,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -5426,14 +7531,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,15 +7546,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5457,11 +7562,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -7029,12 +9134,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -7042,6 +9141,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -7059,7 +9164,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D13"/>
+      <selection activeCell="K6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7079,37 +9184,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7117,10 +9222,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -7136,77 +9241,77 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="31">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="25" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -7214,9 +9319,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -7224,9 +9329,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -7234,9 +9339,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -7244,9 +9349,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -7257,10 +9362,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7271,10 +9376,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7282,14 +9387,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,15 +9402,15 @@
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7313,11 +9418,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8885,11 +10990,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
@@ -8898,6 +10998,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东,12.13日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B28CA-09BE-4C4C-9177-B37B382916AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14EFFDE-6C4D-4BD1-931F-BBBE77AAE528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -213,6 +213,10 @@
   <si>
     <t>开发工作</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，完成了项目设计文档的填写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +583,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +597,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,31 +616,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855088F6-058B-4F8A-A77F-7F19733234DD}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1728,37 +1732,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,10 +1770,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1785,13 +1789,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -1805,9 +1809,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1821,9 +1825,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -1837,9 +1841,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -1847,9 +1851,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -1857,9 +1861,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -1867,9 +1871,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -1877,9 +1881,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -1887,9 +1891,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -1900,10 +1904,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1914,10 +1918,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1925,14 +1929,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,15 +1944,15 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,11 +1960,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -3528,19 +3532,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -3579,18 +3583,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="40"/>
@@ -3602,14 +3606,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,10 +3621,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3634,13 +3638,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -3654,9 +3658,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3670,9 +3674,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -3686,9 +3690,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -3702,9 +3706,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
@@ -3718,9 +3722,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
@@ -3734,9 +3738,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="24"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
@@ -3744,9 +3748,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
@@ -3754,9 +3758,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="24"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
@@ -3764,9 +3768,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -3777,10 +3781,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3791,10 +3795,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3802,14 +3806,14 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,15 +3821,15 @@
       <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,15 +3837,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -5409,6 +5413,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -5416,12 +5426,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -5472,7 +5476,7 @@
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="40"/>
@@ -5484,14 +5488,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5499,10 +5503,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5516,13 +5520,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -5536,9 +5540,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5552,9 +5556,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -5568,9 +5572,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -5584,9 +5588,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -5600,9 +5604,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -5610,9 +5614,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -5620,9 +5624,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -5630,9 +5634,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -5643,10 +5647,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -5663,10 +5667,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -5674,14 +5678,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,15 +5693,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,11 +5709,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -7277,6 +7281,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -7284,12 +7294,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -7328,37 +7332,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7366,10 +7370,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -7385,13 +7389,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7405,9 +7409,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -7421,9 +7425,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -7437,9 +7441,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -7453,9 +7457,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -7463,9 +7467,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -7473,9 +7477,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -7483,9 +7487,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -7493,9 +7497,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -7506,10 +7510,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7520,10 +7524,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7531,14 +7535,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7546,15 +7550,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7562,11 +7566,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9134,6 +9138,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -9141,12 +9151,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -9163,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A801971-D917-41A7-9011-FC9B479D7BB9}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9184,37 +9188,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9222,10 +9226,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -9241,77 +9245,59 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="D5" s="32"/>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -9319,9 +9305,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -9329,9 +9315,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -9339,9 +9325,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -9349,9 +9335,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -9362,10 +9348,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -9376,10 +9362,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -9387,14 +9373,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9402,15 +9388,15 @@
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9418,11 +9404,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
